--- a/cargo_plates/P3510_SSW_cnt_patterning.xlsx
+++ b/cargo_plates/P3510_SSW_cnt_patterning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stellawang/Documents/gitrepos/Crisscross-Design/cargo_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E29D90D-ACAB-4F4B-AA38-7B4ED0A67222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3064D74-C704-374B-A848-2839BFFB399B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-66080" yWindow="-6760" windowWidth="54960" windowHeight="22340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="-20260" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="258">
   <si>
     <t>1</t>
   </si>
@@ -782,6 +782,33 @@
   </si>
   <si>
     <t>CNTbindingL2h1_h1_pos17</t>
+  </si>
+  <si>
+    <t>Oligo SW065 for BioNwire collab, gold nanowire anti-handle with 5 nt handle on position h5 position 16</t>
+  </si>
+  <si>
+    <t>SW065-BioNwire-goldnanowireantihandle-5nt_h5_pos16</t>
+  </si>
+  <si>
+    <t>SW066-BioNwire-goldnanowireantihandle-10nt_h5_pos16</t>
+  </si>
+  <si>
+    <t>SW067-BioNwire-goldnanowireantihandle-15nt_h5_pos16</t>
+  </si>
+  <si>
+    <t>Oligo SW066 for BioNwire collab, gold nanowire anti-handle with 10 nt handle on position h5 position 16</t>
+  </si>
+  <si>
+    <t>Oligo SW067 for BioNwire collab, gold nanowire anti-handle with 15 nt handle on position h5 position 16</t>
+  </si>
+  <si>
+    <t>ACGGTGTACACTTTAATCATTGTGAATTAATGCGCGAACTGA tt ATAAA</t>
+  </si>
+  <si>
+    <t>ACGGTGTACACTTTAATCATTGTGAATTAATGCGCGAACTGA tt ATAAAAGCAT</t>
+  </si>
+  <si>
+    <t>ACGGTGTACACTTTAATCATTGTGAATTAATGCGCGAACTGA tt ATAAAAGCATGACAG</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="N34" sqref="N33:N34"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1499,6 +1526,15 @@
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B11" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1539,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2030,9 +2066,15 @@
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>252</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2238,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2580,6 +2622,15 @@
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
